--- a/app/tables/pol_vandermonde.xlsx
+++ b/app/tables/pol_vandermonde.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(59*x)/3 - (15*x^2)/2 + (5*x^3)/6 - 11</t>
+          <t>Inf + x*Inf</t>
         </is>
       </c>
     </row>

--- a/app/tables/pol_vandermonde.xlsx
+++ b/app/tables/pol_vandermonde.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Inf + x*Inf</t>
+          <t>3*x^2 - 10*x + 11</t>
         </is>
       </c>
     </row>

--- a/app/tables/pol_vandermonde.xlsx
+++ b/app/tables/pol_vandermonde.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3*x^2 - 10*x + 11</t>
+          <t>(7*x)/2 - x^2/2 + 1</t>
         </is>
       </c>
     </row>

--- a/app/tables/pol_vandermonde.xlsx
+++ b/app/tables/pol_vandermonde.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>(7*x)/2 - x^2/2 + 1</t>
+          <t>(239*x)/20 - (77*x^2)/20 + 94/5</t>
         </is>
       </c>
     </row>
